--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,190 +43,199 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>want</t>
+  </si>
+  <si>
+    <t>twitter</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>dilemma</t>
   </si>
   <si>
     <t>watch</t>
@@ -235,13 +244,10 @@
     <t>…</t>
   </si>
   <si>
-    <t>dilemma</t>
+    <t>’</t>
   </si>
   <si>
     <t>watched</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -602,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +701,13 @@
         <v>38</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,13 +751,13 @@
         <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K7">
-        <v>0.7894736842105263</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8942307692307693</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>43</v>
@@ -971,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,13 +1001,13 @@
         <v>44</v>
       </c>
       <c r="K9">
-        <v>0.7192982456140351</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>0.6933333333333334</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8461538461538461</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>0.6923076923076923</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8333333333333334</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K12">
-        <v>0.6896551724137931</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8181818181818182</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K13">
-        <v>0.65</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7826086956521739</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K14">
-        <v>0.5416666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.725</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K15">
-        <v>0.5277777777777778</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K16">
-        <v>0.5185185185185185</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K17">
-        <v>0.4242424242424243</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,31 +1445,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K18">
-        <v>0.3414634146341464</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>14</v>
-      </c>
-      <c r="M18">
-        <v>14</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6875</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>0.3260869565217391</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L19">
         <v>15</v>
@@ -1513,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6842105263157895</v>
+        <v>0.625</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,13 +1551,13 @@
         <v>55</v>
       </c>
       <c r="K20">
-        <v>0.3220338983050847</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6808510638297872</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K21">
-        <v>0.3214285714285715</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6470588235294118</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K22">
-        <v>0.3014571948998179</v>
+        <v>0.2987249544626594</v>
       </c>
       <c r="L22">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M22">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,37 +1677,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6470588235294118</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>11</v>
-      </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K23">
-        <v>0.2950819672131147</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,13 +1727,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6376811594202898</v>
+        <v>0.5625</v>
       </c>
       <c r="C24">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1739,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K24">
-        <v>0.2307692307692308</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1763,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,13 +1777,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.625</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1789,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K25">
-        <v>0.2037037037037037</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,37 +1827,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6071428571428571</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>17</v>
-      </c>
-      <c r="D26">
-        <v>17</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K26">
-        <v>0.1882352941176471</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1863,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1871,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5128205128205128</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1889,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K27">
-        <v>0.1851851851851852</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1921,13 +1927,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1939,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K28">
-        <v>0.1690140845070423</v>
+        <v>0.2</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1963,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1971,13 +1977,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1989,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K29">
-        <v>0.1643835616438356</v>
+        <v>0.2</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2013,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2021,13 +2027,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3928571428571428</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2039,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K30">
-        <v>0.1578947368421053</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2063,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2071,37 +2077,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2307692307692308</v>
+        <v>0.05536332179930796</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K31">
-        <v>0.1203703703703704</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L31">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2113,45 +2119,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>475</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.06143344709897611</v>
-      </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>24</v>
-      </c>
-      <c r="E32">
-        <v>0.25</v>
-      </c>
-      <c r="F32">
-        <v>0.75</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>275</v>
-      </c>
       <c r="J32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K32">
-        <v>0.09487951807228916</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L32">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="M32">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2163,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>601</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2171,13 +2153,13 @@
         <v>68</v>
       </c>
       <c r="K33">
-        <v>0.08833922261484099</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2189,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>258</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2197,25 +2179,25 @@
         <v>69</v>
       </c>
       <c r="K34">
-        <v>0.08759124087591241</v>
+        <v>0.09461966604823747</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M34">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>125</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2223,13 +2205,13 @@
         <v>70</v>
       </c>
       <c r="K35">
-        <v>0.08211143695014662</v>
+        <v>0.08504398826979472</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2241,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2249,13 +2231,13 @@
         <v>71</v>
       </c>
       <c r="K36">
-        <v>0.07467532467532467</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="L36">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2267,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>570</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2275,13 +2257,13 @@
         <v>72</v>
       </c>
       <c r="K37">
-        <v>0.0576036866359447</v>
+        <v>0.07981927710843373</v>
       </c>
       <c r="L37">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M37">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2293,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1636</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2301,13 +2283,13 @@
         <v>73</v>
       </c>
       <c r="K38">
-        <v>0.05714285714285714</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2319,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2327,25 +2309,25 @@
         <v>74</v>
       </c>
       <c r="K39">
-        <v>0.03472222222222222</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>278</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2353,25 +2335,103 @@
         <v>75</v>
       </c>
       <c r="K40">
-        <v>0.03461538461538462</v>
+        <v>0.06105990783410138</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>753</v>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <v>0.04370179948586118</v>
+      </c>
+      <c r="L41">
+        <v>34</v>
+      </c>
+      <c r="M41">
+        <v>37</v>
+      </c>
+      <c r="N41">
+        <v>0.92</v>
+      </c>
+      <c r="O41">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42">
+        <v>0.03819444444444445</v>
+      </c>
+      <c r="L42">
+        <v>11</v>
+      </c>
+      <c r="M42">
+        <v>11</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43">
+        <v>0.0353356890459364</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>0.38</v>
+      </c>
+      <c r="O43">
+        <v>0.62</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
